--- a/FFE-AddIn/_Doc/Attachments/SSQ Examples.xlsx
+++ b/FFE-AddIn/_Doc/Attachments/SSQ Examples.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D89FD70-CE75-4B45-B48D-53C0D1FC69B8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{5DA73404-9797-419F-B54A-F37C4695BBB2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{CA807A33-2787-4857-9887-AB98A5DC9D53}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{314593F2-E385-4A9A-9CBA-FA85C79DDF42}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -85,7 +85,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -118,7 +118,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="165" formatCode="#,##0.0000"/>
+      <numFmt numFmtId="164" formatCode="#,##0.0000"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
